--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/47_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/47_225-80R17.xlsx
@@ -674,61 +674,61 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.006717760015064258</v>
+        <v>0.03217797869056187</v>
       </c>
       <c r="E2">
-        <v>0.1397770317773231</v>
+        <v>0.08878068703163784</v>
       </c>
       <c r="F2">
-        <v>0.1325986074883479</v>
+        <v>0.3301057668959236</v>
       </c>
       <c r="G2">
-        <v>0.06385990290980667</v>
+        <v>0.02646912308686613</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00452219676715344</v>
       </c>
       <c r="I2">
-        <v>0.1139396756786888</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0028865413027049</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.007519195652072471</v>
       </c>
       <c r="L2">
-        <v>0.0142570142133272</v>
+        <v>0.1353672514818801</v>
       </c>
       <c r="M2">
-        <v>0.1306292635068486</v>
+        <v>0.06132997313253687</v>
       </c>
       <c r="N2">
-        <v>0.1322195687375689</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.002897953320952403</v>
+        <v>0.03998704916521571</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0004402936331514499</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.003210496428309237</v>
       </c>
       <c r="S2">
-        <v>0.002776515887479863</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.009399348732113981</v>
       </c>
       <c r="U2">
-        <v>0.0425791431210551</v>
+        <v>0.05407289159902403</v>
       </c>
       <c r="V2">
-        <v>0.1288966896337549</v>
+        <v>0.1065186371419475</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -740,31 +740,31 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.02890383115953231</v>
+        <v>0.01856931026282294</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01658772140463941</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.004651554559461711</v>
+        <v>0.0107889222665682</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.002499941331262894</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.001771773216103812</v>
       </c>
       <c r="AG2">
-        <v>0.03288099031902953</v>
+        <v>0.04283011929658576</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.02657927915267657</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -784,46 +784,46 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2239483152900972</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.2359092651043313</v>
       </c>
       <c r="F3">
-        <v>0.2295015550073057</v>
+        <v>0.1437979529138424</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.02561493602729278</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02174007473126673</v>
+        <v>0.02964394966930325</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.02170020443088616</v>
       </c>
       <c r="L3">
-        <v>0.1514907613266197</v>
+        <v>0.08118002499258589</v>
       </c>
       <c r="M3">
-        <v>0.1077725535354815</v>
+        <v>0.2018569097806975</v>
       </c>
       <c r="N3">
-        <v>0.002806306315494903</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.01661148511257918</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.006037776361213974</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -835,31 +835,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.1764939049808979</v>
+        <v>0.007033639980071077</v>
       </c>
       <c r="V3">
-        <v>0.02293837093122052</v>
+        <v>0.1358875119832358</v>
       </c>
       <c r="W3">
-        <v>0.002270989748966309</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0009670679853523517</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.009207595291252578</v>
+        <v>0.002933291587905228</v>
       </c>
       <c r="AA3">
-        <v>0.001952226167380411</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02038127746830636</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.001410089479179437</v>
+        <v>0.02600699832301328</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02095210231928025</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.006166809421898033</v>
+        <v>0.03809942534023509</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.02768662839280721</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0304594668943248</v>
+        <v>0.2846674295766609</v>
       </c>
       <c r="E4">
-        <v>0.0277874967991231</v>
+        <v>0.143218803000756</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.08954821170842131</v>
       </c>
       <c r="G4">
-        <v>0.007067024177317712</v>
+        <v>0.001934603534053032</v>
       </c>
       <c r="H4">
-        <v>0.2685343530200437</v>
+        <v>0.0201593005627557</v>
       </c>
       <c r="I4">
-        <v>0.2787831296053266</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01037494060580133</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.08980357385550941</v>
       </c>
       <c r="L4">
-        <v>0.04292124016468483</v>
+        <v>0.14219916065173</v>
       </c>
       <c r="M4">
-        <v>0.06150898836525615</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.06466695272803022</v>
+        <v>0.01549169060321005</v>
       </c>
       <c r="O4">
-        <v>0.1292588944478706</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -939,16 +939,16 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.01069704889947383</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.009635000086265107</v>
       </c>
       <c r="U4">
-        <v>0.0229010857825137</v>
+        <v>0.09568040637086116</v>
       </c>
       <c r="V4">
-        <v>0.01895120432673544</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -960,16 +960,16 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.002732972858397663</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.02974042253955745</v>
+        <v>0.03148716694653165</v>
       </c>
       <c r="AC4">
-        <v>0.004233849681801296</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.03968010248628553</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.02338663715276115</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.002488842567940631</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1004,61 +1004,61 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1607611535872145</v>
       </c>
       <c r="E5">
-        <v>0.2240655399078617</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1224484730596089</v>
+        <v>0.1907379112272314</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.008140481464908471</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0404088169616421</v>
       </c>
       <c r="I5">
-        <v>0.1922860765434605</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008631109534692908</v>
+        <v>0.001863174265314584</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05173488672492526</v>
+        <v>0.3071647965766751</v>
       </c>
       <c r="M5">
-        <v>0.08560041408588998</v>
+        <v>0.002082737387359943</v>
       </c>
       <c r="N5">
-        <v>0.03112036047580036</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.02591291522525726</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.03992017808853513</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.02878380423763225</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.01907597829582865</v>
+        <v>0.09654698186308802</v>
       </c>
       <c r="V5">
-        <v>0.09880722388466723</v>
+        <v>0.05188076549729144</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1067,31 +1067,31 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.007068997108550591</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0409866120879309</v>
+        <v>0.008156744930693502</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03413934952111197</v>
+        <v>0.02095142649554228</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.0102304476623654</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.006025578015524376</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.025384231186584</v>
       </c>
       <c r="AG5">
-        <v>0.009305418427979361</v>
+        <v>0.04977741566883214</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1114,64 +1114,64 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01082574759788641</v>
+        <v>0.2028387354352437</v>
       </c>
       <c r="E6">
-        <v>0.06703071596047668</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1293224529979929</v>
+        <v>0.196107628753864</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.01934226293119564</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01320420793075235</v>
       </c>
       <c r="I6">
-        <v>0.1123217524068252</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01752877682073658</v>
       </c>
       <c r="K6">
-        <v>0.02607719586829163</v>
+        <v>0.006748507734554245</v>
       </c>
       <c r="L6">
-        <v>0.1422592032824563</v>
+        <v>0.2899320069119276</v>
       </c>
       <c r="M6">
-        <v>0.1795460464882402</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.007217643266285018</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.05139639322928575</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0004299512903165988</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.1215108359126135</v>
+        <v>0.1099464704303807</v>
       </c>
       <c r="V6">
-        <v>0.07048538547169758</v>
+        <v>0.03464585966608991</v>
       </c>
       <c r="W6">
-        <v>0.001540512174879173</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01313821312103466</v>
+        <v>0.007707264823924251</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0441520798308517</v>
+        <v>0.02378189469234203</v>
       </c>
       <c r="AC6">
-        <v>0.0209722768113513</v>
+        <v>0.01636131641935919</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0004991085624496702</v>
+        <v>0.01765452475337437</v>
       </c>
       <c r="AG6">
-        <v>0.008492128993350919</v>
+        <v>0.0369828994299705</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1347,103 +1347,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.006717760015064258</v>
+        <v>0.03217797869056187</v>
       </c>
       <c r="E2">
-        <v>0.1464947917923873</v>
+        <v>0.1209586657221997</v>
       </c>
       <c r="F2">
-        <v>0.2790933992807352</v>
+        <v>0.4510644326181233</v>
       </c>
       <c r="G2">
-        <v>0.3429533021905419</v>
+        <v>0.4775335557049895</v>
       </c>
       <c r="H2">
-        <v>0.3429533021905419</v>
+        <v>0.4820557524721429</v>
       </c>
       <c r="I2">
-        <v>0.4568929778692307</v>
+        <v>0.4820557524721429</v>
       </c>
       <c r="J2">
-        <v>0.4597795191719355</v>
+        <v>0.4820557524721429</v>
       </c>
       <c r="K2">
-        <v>0.4597795191719355</v>
+        <v>0.4895749481242154</v>
       </c>
       <c r="L2">
-        <v>0.4740365333852627</v>
+        <v>0.6249421996060954</v>
       </c>
       <c r="M2">
-        <v>0.6046657968921113</v>
+        <v>0.6862721727386323</v>
       </c>
       <c r="N2">
-        <v>0.7368853656296802</v>
+        <v>0.6862721727386323</v>
       </c>
       <c r="O2">
-        <v>0.7397833189506327</v>
+        <v>0.726259221903848</v>
       </c>
       <c r="P2">
-        <v>0.7397833189506327</v>
+        <v>0.726259221903848</v>
       </c>
       <c r="Q2">
-        <v>0.7402236125837841</v>
+        <v>0.726259221903848</v>
       </c>
       <c r="R2">
-        <v>0.7402236125837841</v>
+        <v>0.7294697183321572</v>
       </c>
       <c r="S2">
-        <v>0.743000128471264</v>
+        <v>0.7294697183321572</v>
       </c>
       <c r="T2">
-        <v>0.743000128471264</v>
+        <v>0.7388690670642712</v>
       </c>
       <c r="U2">
-        <v>0.7855792715923191</v>
+        <v>0.7929419586632953</v>
       </c>
       <c r="V2">
-        <v>0.914475961226074</v>
+        <v>0.8994605958052427</v>
       </c>
       <c r="W2">
-        <v>0.914475961226074</v>
+        <v>0.8994605958052427</v>
       </c>
       <c r="X2">
-        <v>0.914475961226074</v>
+        <v>0.8994605958052427</v>
       </c>
       <c r="Y2">
-        <v>0.914475961226074</v>
+        <v>0.8994605958052427</v>
       </c>
       <c r="Z2">
-        <v>0.9433797923856063</v>
+        <v>0.9180299060680657</v>
       </c>
       <c r="AA2">
-        <v>0.9433797923856063</v>
+        <v>0.9180299060680657</v>
       </c>
       <c r="AB2">
-        <v>0.9599675137902457</v>
+        <v>0.9180299060680657</v>
       </c>
       <c r="AC2">
-        <v>0.9646190683497075</v>
+        <v>0.9288188283346339</v>
       </c>
       <c r="AD2">
-        <v>0.9646190683497075</v>
+        <v>0.9288188283346339</v>
       </c>
       <c r="AE2">
-        <v>0.9671190096809703</v>
+        <v>0.9288188283346339</v>
       </c>
       <c r="AF2">
-        <v>0.9671190096809703</v>
+        <v>0.9305906015507377</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.9734207208473235</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1457,94 +1457,94 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2239483152900972</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2239483152900972</v>
+        <v>0.2359092651043313</v>
       </c>
       <c r="F3">
-        <v>0.4534498702974029</v>
+        <v>0.3797072180181737</v>
       </c>
       <c r="G3">
-        <v>0.4534498702974029</v>
+        <v>0.4053221540454665</v>
       </c>
       <c r="H3">
-        <v>0.4534498702974029</v>
+        <v>0.4053221540454665</v>
       </c>
       <c r="I3">
-        <v>0.4751899450286696</v>
+        <v>0.4349661037147697</v>
       </c>
       <c r="J3">
-        <v>0.4751899450286696</v>
+        <v>0.4349661037147697</v>
       </c>
       <c r="K3">
-        <v>0.4751899450286696</v>
+        <v>0.4566663081456558</v>
       </c>
       <c r="L3">
-        <v>0.6266807063552893</v>
+        <v>0.5378463331382417</v>
       </c>
       <c r="M3">
-        <v>0.7344532598907708</v>
+        <v>0.7397032429189392</v>
       </c>
       <c r="N3">
-        <v>0.7372595662062658</v>
+        <v>0.7397032429189392</v>
       </c>
       <c r="O3">
-        <v>0.7372595662062658</v>
+        <v>0.7563147280315183</v>
       </c>
       <c r="P3">
-        <v>0.7372595662062658</v>
+        <v>0.7563147280315183</v>
       </c>
       <c r="Q3">
-        <v>0.7372595662062658</v>
+        <v>0.7623525043927323</v>
       </c>
       <c r="R3">
-        <v>0.7372595662062658</v>
+        <v>0.7623525043927323</v>
       </c>
       <c r="S3">
-        <v>0.7372595662062658</v>
+        <v>0.7623525043927323</v>
       </c>
       <c r="T3">
-        <v>0.7372595662062658</v>
+        <v>0.7623525043927323</v>
       </c>
       <c r="U3">
-        <v>0.9137534711871637</v>
+        <v>0.7693861443728034</v>
       </c>
       <c r="V3">
-        <v>0.9366918421183842</v>
+        <v>0.9052736563560392</v>
       </c>
       <c r="W3">
-        <v>0.9389628318673505</v>
+        <v>0.9052736563560392</v>
       </c>
       <c r="X3">
-        <v>0.9389628318673505</v>
+        <v>0.9052736563560392</v>
       </c>
       <c r="Y3">
-        <v>0.9399298998527029</v>
+        <v>0.9052736563560392</v>
       </c>
       <c r="Z3">
-        <v>0.9491374951439555</v>
+        <v>0.9082069479439444</v>
       </c>
       <c r="AA3">
-        <v>0.951089721311336</v>
+        <v>0.9082069479439444</v>
       </c>
       <c r="AB3">
-        <v>0.9714709987796423</v>
+        <v>0.9082069479439444</v>
       </c>
       <c r="AC3">
-        <v>0.9728810882588217</v>
+        <v>0.9342139462669576</v>
       </c>
       <c r="AD3">
-        <v>0.9728810882588217</v>
+        <v>0.9342139462669576</v>
       </c>
       <c r="AE3">
-        <v>0.9728810882588217</v>
+        <v>0.9342139462669576</v>
       </c>
       <c r="AF3">
-        <v>0.9938331905781019</v>
+        <v>0.9342139462669576</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9723133716071928</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -1567,97 +1567,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0304594668943248</v>
+        <v>0.2846674295766609</v>
       </c>
       <c r="E4">
-        <v>0.0582469636934479</v>
+        <v>0.427886232577417</v>
       </c>
       <c r="F4">
-        <v>0.0582469636934479</v>
+        <v>0.5174344442858383</v>
       </c>
       <c r="G4">
-        <v>0.0653139878707656</v>
+        <v>0.5193690478198913</v>
       </c>
       <c r="H4">
-        <v>0.3338483408908093</v>
+        <v>0.5395283483826471</v>
       </c>
       <c r="I4">
-        <v>0.612631470496136</v>
+        <v>0.5395283483826471</v>
       </c>
       <c r="J4">
-        <v>0.612631470496136</v>
+        <v>0.5499032889884484</v>
       </c>
       <c r="K4">
-        <v>0.612631470496136</v>
+        <v>0.6397068628439578</v>
       </c>
       <c r="L4">
-        <v>0.6555527106608208</v>
+        <v>0.7819060234956878</v>
       </c>
       <c r="M4">
-        <v>0.717061699026077</v>
+        <v>0.7819060234956878</v>
       </c>
       <c r="N4">
-        <v>0.7817286517541072</v>
+        <v>0.7973977140988979</v>
       </c>
       <c r="O4">
-        <v>0.9109875462019777</v>
+        <v>0.7973977140988979</v>
       </c>
       <c r="P4">
-        <v>0.9109875462019777</v>
+        <v>0.7973977140988979</v>
       </c>
       <c r="Q4">
-        <v>0.9109875462019777</v>
+        <v>0.7973977140988979</v>
       </c>
       <c r="R4">
-        <v>0.9109875462019777</v>
+        <v>0.7973977140988979</v>
       </c>
       <c r="S4">
-        <v>0.9216845951014516</v>
+        <v>0.7973977140988979</v>
       </c>
       <c r="T4">
-        <v>0.9216845951014516</v>
+        <v>0.807032714185163</v>
       </c>
       <c r="U4">
-        <v>0.9445856808839653</v>
+        <v>0.9027131205560242</v>
       </c>
       <c r="V4">
-        <v>0.9635368852107008</v>
+        <v>0.9027131205560242</v>
       </c>
       <c r="W4">
-        <v>0.9635368852107008</v>
+        <v>0.9027131205560242</v>
       </c>
       <c r="X4">
-        <v>0.9635368852107008</v>
+        <v>0.9027131205560242</v>
       </c>
       <c r="Y4">
-        <v>0.9635368852107008</v>
+        <v>0.9027131205560242</v>
       </c>
       <c r="Z4">
-        <v>0.9635368852107008</v>
+        <v>0.9054460934144218</v>
       </c>
       <c r="AA4">
-        <v>0.9635368852107008</v>
+        <v>0.9054460934144218</v>
       </c>
       <c r="AB4">
-        <v>0.9932773077502582</v>
+        <v>0.9369332603609535</v>
       </c>
       <c r="AC4">
-        <v>0.9975111574320595</v>
+        <v>0.9369332603609535</v>
       </c>
       <c r="AD4">
-        <v>0.9975111574320595</v>
+        <v>0.9369332603609535</v>
       </c>
       <c r="AE4">
-        <v>0.9975111574320595</v>
+        <v>0.9369332603609535</v>
       </c>
       <c r="AF4">
-        <v>0.9975111574320595</v>
+        <v>0.976613362847239</v>
       </c>
       <c r="AG4">
-        <v>0.9975111574320595</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9975111574320595</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1607611535872145</v>
       </c>
       <c r="E5">
-        <v>0.2240655399078617</v>
+        <v>0.1607611535872145</v>
       </c>
       <c r="F5">
-        <v>0.3465140129674705</v>
+        <v>0.351499064814446</v>
       </c>
       <c r="G5">
-        <v>0.3465140129674705</v>
+        <v>0.3596395462793545</v>
       </c>
       <c r="H5">
-        <v>0.3465140129674705</v>
+        <v>0.4000483632409966</v>
       </c>
       <c r="I5">
-        <v>0.5388000895109311</v>
+        <v>0.4000483632409966</v>
       </c>
       <c r="J5">
-        <v>0.547431199045624</v>
+        <v>0.4019115375063111</v>
       </c>
       <c r="K5">
-        <v>0.547431199045624</v>
+        <v>0.4019115375063111</v>
       </c>
       <c r="L5">
-        <v>0.5991660857705492</v>
+        <v>0.7090763340829862</v>
       </c>
       <c r="M5">
-        <v>0.6847664998564391</v>
+        <v>0.7111590714703462</v>
       </c>
       <c r="N5">
-        <v>0.7158868603322395</v>
+        <v>0.7111590714703462</v>
       </c>
       <c r="O5">
-        <v>0.7158868603322395</v>
+        <v>0.7370719866956035</v>
       </c>
       <c r="P5">
-        <v>0.7158868603322395</v>
+        <v>0.7370719866956035</v>
       </c>
       <c r="Q5">
-        <v>0.7558070384207746</v>
+        <v>0.7370719866956035</v>
       </c>
       <c r="R5">
-        <v>0.7558070384207746</v>
+        <v>0.7370719866956035</v>
       </c>
       <c r="S5">
-        <v>0.7845908426584068</v>
+        <v>0.7370719866956035</v>
       </c>
       <c r="T5">
-        <v>0.7845908426584068</v>
+        <v>0.7370719866956035</v>
       </c>
       <c r="U5">
-        <v>0.8036668209542355</v>
+        <v>0.8336189685586914</v>
       </c>
       <c r="V5">
-        <v>0.9024740448389027</v>
+        <v>0.8854997340559829</v>
       </c>
       <c r="W5">
-        <v>0.9024740448389027</v>
+        <v>0.8854997340559829</v>
       </c>
       <c r="X5">
-        <v>0.9024740448389027</v>
+        <v>0.8854997340559829</v>
       </c>
       <c r="Y5">
-        <v>0.9095430419474533</v>
+        <v>0.8854997340559829</v>
       </c>
       <c r="Z5">
-        <v>0.9505296540353841</v>
+        <v>0.8936564789866764</v>
       </c>
       <c r="AA5">
-        <v>0.9505296540353841</v>
+        <v>0.8936564789866764</v>
       </c>
       <c r="AB5">
-        <v>0.9846690035564961</v>
+        <v>0.9146079054822187</v>
       </c>
       <c r="AC5">
-        <v>0.9846690035564961</v>
+        <v>0.9248383531445841</v>
       </c>
       <c r="AD5">
-        <v>0.9846690035564961</v>
+        <v>0.9248383531445841</v>
       </c>
       <c r="AE5">
-        <v>0.9906945815720205</v>
+        <v>0.9248383531445841</v>
       </c>
       <c r="AF5">
-        <v>0.9906945815720205</v>
+        <v>0.950222584331168</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,91 +1787,91 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01082574759788641</v>
+        <v>0.2028387354352437</v>
       </c>
       <c r="E6">
-        <v>0.07785646355836308</v>
+        <v>0.2028387354352437</v>
       </c>
       <c r="F6">
-        <v>0.207178916556356</v>
+        <v>0.3989463641891078</v>
       </c>
       <c r="G6">
-        <v>0.207178916556356</v>
+        <v>0.4182886271203034</v>
       </c>
       <c r="H6">
-        <v>0.207178916556356</v>
+        <v>0.4314928350510557</v>
       </c>
       <c r="I6">
-        <v>0.3195006689631812</v>
+        <v>0.4314928350510557</v>
       </c>
       <c r="J6">
-        <v>0.3195006689631812</v>
+        <v>0.4490216118717923</v>
       </c>
       <c r="K6">
-        <v>0.3455778648314728</v>
+        <v>0.4557701196063466</v>
       </c>
       <c r="L6">
-        <v>0.4878370681139291</v>
+        <v>0.7457021265182742</v>
       </c>
       <c r="M6">
-        <v>0.6673831146021693</v>
+        <v>0.7457021265182742</v>
       </c>
       <c r="N6">
-        <v>0.6673831146021693</v>
+        <v>0.7457021265182742</v>
       </c>
       <c r="O6">
-        <v>0.6673831146021693</v>
+        <v>0.7529197697845592</v>
       </c>
       <c r="P6">
-        <v>0.6673831146021693</v>
+        <v>0.7529197697845592</v>
       </c>
       <c r="Q6">
-        <v>0.7187795078314551</v>
+        <v>0.7529197697845592</v>
       </c>
       <c r="R6">
-        <v>0.7187795078314551</v>
+        <v>0.7529197697845592</v>
       </c>
       <c r="S6">
-        <v>0.7192094591217717</v>
+        <v>0.7529197697845592</v>
       </c>
       <c r="T6">
-        <v>0.7192094591217717</v>
+        <v>0.7529197697845592</v>
       </c>
       <c r="U6">
-        <v>0.8407202950343853</v>
+        <v>0.8628662402149399</v>
       </c>
       <c r="V6">
-        <v>0.9112056805060829</v>
+        <v>0.8975120998810298</v>
       </c>
       <c r="W6">
-        <v>0.912746192680962</v>
+        <v>0.8975120998810298</v>
       </c>
       <c r="X6">
-        <v>0.912746192680962</v>
+        <v>0.8975120998810298</v>
       </c>
       <c r="Y6">
-        <v>0.912746192680962</v>
+        <v>0.8975120998810298</v>
       </c>
       <c r="Z6">
-        <v>0.9258844058019967</v>
+        <v>0.905219364704954</v>
       </c>
       <c r="AA6">
-        <v>0.9258844058019967</v>
+        <v>0.905219364704954</v>
       </c>
       <c r="AB6">
-        <v>0.9700364856328484</v>
+        <v>0.9290012593972961</v>
       </c>
       <c r="AC6">
-        <v>0.9910087624441997</v>
+        <v>0.9453625758166553</v>
       </c>
       <c r="AD6">
-        <v>0.9910087624441997</v>
+        <v>0.9453625758166553</v>
       </c>
       <c r="AE6">
-        <v>0.9910087624441997</v>
+        <v>0.9453625758166553</v>
       </c>
       <c r="AF6">
-        <v>0.9915078710066494</v>
+        <v>0.9630171005700296</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -1951,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6046657968921113</v>
+        <v>0.6249421996060954</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -1989,7 +1989,7 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -1998,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6266807063552893</v>
+        <v>0.5378463331382417</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -2030,19 +2030,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.612631470496136</v>
+        <v>0.5174344442858383</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -2071,19 +2071,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5388000895109311</v>
+        <v>0.7090763340829862</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -2112,16 +2112,16 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6673831146021693</v>
+        <v>0.7457021265182742</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -2210,16 +2210,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7368853656296802</v>
+        <v>0.726259221903848</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -2248,7 +2248,7 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7344532598907708</v>
+        <v>0.7397032429189392</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -2289,16 +2289,16 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.717061699026077</v>
+        <v>0.7819060234956878</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -2330,19 +2330,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7158868603322395</v>
+        <v>0.7090763340829862</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -2371,19 +2371,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7187795078314551</v>
+        <v>0.7457021265182742</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.914475961226074</v>
+        <v>0.8994605958052427</v>
       </c>
       <c r="G2">
         <v>19</v>
@@ -2507,16 +2507,16 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9137534711871637</v>
+        <v>0.9052736563560392</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -2548,19 +2548,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9109875462019777</v>
+        <v>0.807032714185163</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -2589,7 +2589,7 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -2598,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8036668209542355</v>
+        <v>0.8336189685586914</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -2630,7 +2630,7 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8407202950343853</v>
+        <v>0.8628662402149399</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -2728,16 +2728,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.914475961226074</v>
+        <v>0.9180299060680657</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -2766,16 +2766,16 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9137534711871637</v>
+        <v>0.9052736563560392</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -2807,19 +2807,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9109875462019777</v>
+        <v>0.9027131205560242</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -2848,19 +2848,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9024740448389027</v>
+        <v>0.9146079054822187</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -2889,19 +2889,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9112056805060829</v>
+        <v>0.905219364704954</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>47</v>
